--- a/output/below_50/tRNA-Lys-CTT-2-1.xlsx
+++ b/output/below_50/tRNA-Lys-CTT-2-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="72">
   <si>
     <t>chr1</t>
   </si>
@@ -228,174 +228,6 @@
   </si>
   <si>
     <t>63</t>
-  </si>
-  <si>
-    <t>145395767</t>
-  </si>
-  <si>
-    <t>145395790</t>
-  </si>
-  <si>
-    <t>145395787</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
-  </si>
-  <si>
-    <t>GATGGGGGCTGCAGAGAGCC</t>
-  </si>
-  <si>
-    <t>88% (67)</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 0, Doench 2016: 35%, Moreno-Mateos: 88%</t>
-  </si>
-  <si>
-    <t>145395935</t>
-  </si>
-  <si>
-    <t>145395958</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>145395938</t>
-  </si>
-  <si>
-    <t>AATTAAAATGCTTTGCAGAG</t>
-  </si>
-  <si>
-    <t>86% (62)</t>
-  </si>
-  <si>
-    <t>18% (29)</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 37, Doench 2016: 86%, Moreno-Mateos: 18%</t>
-  </si>
-  <si>
-    <t>2.95298E+11</t>
-  </si>
-  <si>
-    <t>145396005</t>
-  </si>
-  <si>
-    <t>145396028</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>145396025</t>
-  </si>
-  <si>
-    <t>TCTCTCCTCTGCTCAAGTGA</t>
-  </si>
-  <si>
-    <t>59% (53)</t>
-  </si>
-  <si>
-    <t>48% (44)</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 38, Doench 2016: 59%, Moreno-Mateos: 48%</t>
-  </si>
-  <si>
-    <t>2.30417E+11</t>
-  </si>
-  <si>
-    <t>145396037</t>
-  </si>
-  <si>
-    <t>145396060</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>145396057</t>
-  </si>
-  <si>
-    <t>CAACCGTGGTCCCAGCTCCG</t>
-  </si>
-  <si>
-    <t>81% (60)</t>
-  </si>
-  <si>
-    <t>25% (33)</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 9, Doench 2016: 81%, Moreno-Mateos: 25%</t>
-  </si>
-  <si>
-    <t>3.56615E+11</t>
-  </si>
-  <si>
-    <t>145396038</t>
-  </si>
-  <si>
-    <t>145396061</t>
-  </si>
-  <si>
-    <t>145396058</t>
-  </si>
-  <si>
-    <t>AACCGTGGTCCCAGCTCCGT</t>
-  </si>
-  <si>
-    <t>87% (66)</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 9, Doench 2016: 72%, Moreno-Mateos: 87%</t>
-  </si>
-  <si>
-    <t>1.87093E+11</t>
-  </si>
-  <si>
-    <t>145396040</t>
-  </si>
-  <si>
-    <t>145396063</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>145396043</t>
-  </si>
-  <si>
-    <t>GGCCCACGGAGCTGGGACCA</t>
-  </si>
-  <si>
-    <t>90% (69)</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 28, Doench 2016: 59%, Moreno-Mateos: 90%</t>
-  </si>
-  <si>
-    <t>2.75011E+11</t>
   </si>
 </sst>
 </file>
@@ -440,7 +272,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -918,360 +750,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" t="s">
-        <v>52</v>
-      </c>
-      <c r="O9" t="s">
-        <v>77</v>
-      </c>
-      <c r="P9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>64</v>
-      </c>
-      <c r="R9" t="s">
-        <v>79</v>
-      </c>
-      <c r="S9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L10" t="s">
-        <v>51</v>
-      </c>
-      <c r="M10" t="s">
-        <v>82</v>
-      </c>
-      <c r="N10" t="s">
-        <v>85</v>
-      </c>
-      <c r="O10" t="s">
-        <v>86</v>
-      </c>
-      <c r="P10" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>39</v>
-      </c>
-      <c r="R10" t="s">
-        <v>88</v>
-      </c>
-      <c r="S10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L11" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" t="s">
-        <v>92</v>
-      </c>
-      <c r="N11" t="s">
-        <v>95</v>
-      </c>
-      <c r="O11" t="s">
-        <v>96</v>
-      </c>
-      <c r="P11" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>98</v>
-      </c>
-      <c r="R11" t="s">
-        <v>99</v>
-      </c>
-      <c r="S11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" t="s">
-        <v>104</v>
-      </c>
-      <c r="H12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" t="s">
-        <v>75</v>
-      </c>
-      <c r="J12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" t="s">
-        <v>105</v>
-      </c>
-      <c r="L12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" t="s">
-        <v>103</v>
-      </c>
-      <c r="N12" t="s">
-        <v>106</v>
-      </c>
-      <c r="O12" t="s">
-        <v>107</v>
-      </c>
-      <c r="P12" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>109</v>
-      </c>
-      <c r="R12" t="s">
-        <v>110</v>
-      </c>
-      <c r="S12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" t="s">
-        <v>114</v>
-      </c>
-      <c r="H13" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" t="s">
-        <v>75</v>
-      </c>
-      <c r="J13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" t="s">
-        <v>115</v>
-      </c>
-      <c r="L13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M13" t="s">
-        <v>103</v>
-      </c>
-      <c r="N13" t="s">
-        <v>28</v>
-      </c>
-      <c r="O13" t="s">
-        <v>116</v>
-      </c>
-      <c r="P13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>117</v>
-      </c>
-      <c r="R13" t="s">
-        <v>118</v>
-      </c>
-      <c r="S13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s">
-        <v>123</v>
-      </c>
-      <c r="G14" t="s">
-        <v>121</v>
-      </c>
-      <c r="H14" t="s">
-        <v>75</v>
-      </c>
-      <c r="I14" t="s">
-        <v>75</v>
-      </c>
-      <c r="J14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" t="s">
-        <v>124</v>
-      </c>
-      <c r="L14" t="s">
-        <v>60</v>
-      </c>
-      <c r="M14" t="s">
-        <v>122</v>
-      </c>
-      <c r="N14" t="s">
-        <v>95</v>
-      </c>
-      <c r="O14" t="s">
-        <v>125</v>
-      </c>
-      <c r="P14" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>71</v>
-      </c>
-      <c r="R14" t="s">
-        <v>126</v>
-      </c>
-      <c r="S14" t="s">
-        <v>127</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
